--- a/data/trans_orig/P65-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P65-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21675</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14445</v>
+        <v>14193</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32004</v>
+        <v>32834</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1113285069304593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07419187599297732</v>
+        <v>0.07289834826344398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1643839768939117</v>
+        <v>0.1686460056375182</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6820</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2857</v>
+        <v>2835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13496</v>
+        <v>13207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0427845639279671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01792358170129685</v>
+        <v>0.01778527247377833</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08466922996645369</v>
+        <v>0.08285334585715171</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -786,19 +786,19 @@
         <v>28495</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19488</v>
+        <v>19647</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41085</v>
+        <v>41070</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08047275386774902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05503802468026185</v>
+        <v>0.05548730467189354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1160304442377101</v>
+        <v>0.1159879276306456</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13362</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7609</v>
+        <v>7494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23226</v>
+        <v>21113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06863350469276569</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03908259291835125</v>
+        <v>0.03849348187836227</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1192951512345733</v>
+        <v>0.108443512797303</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>8944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4179</v>
+        <v>4104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15868</v>
+        <v>16248</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05611134656701513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02621748904564037</v>
+        <v>0.02574586965928306</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09955102874073966</v>
+        <v>0.101936965047981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -857,19 +857,19 @@
         <v>22306</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14670</v>
+        <v>14173</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32959</v>
+        <v>33875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06299652785695217</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04143013819730494</v>
+        <v>0.04002750446699965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09308189309546423</v>
+        <v>0.09566789793678809</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>12369</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7289</v>
+        <v>6598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23212</v>
+        <v>21121</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06352854039422075</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03743722997459302</v>
+        <v>0.03388710173205539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1192253800068389</v>
+        <v>0.10848362485083</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -907,19 +907,19 @@
         <v>14186</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7656</v>
+        <v>8256</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22741</v>
+        <v>23031</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08899859027911876</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04802820226776595</v>
+        <v>0.05179573977829762</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1426692344774056</v>
+        <v>0.1444853097410972</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -928,19 +928,19 @@
         <v>26555</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17315</v>
+        <v>17489</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39236</v>
+        <v>38627</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07499414239080783</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04890095188107671</v>
+        <v>0.0493918150581128</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1108083396998628</v>
+        <v>0.1090867151622944</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>53804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42175</v>
+        <v>39747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68590</v>
+        <v>67094</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2763512897218566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2166215729853227</v>
+        <v>0.204150245092531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3523006440799026</v>
+        <v>0.3446132394394002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -978,19 +978,19 @@
         <v>18224</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11199</v>
+        <v>11312</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26681</v>
+        <v>27792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1143305447678518</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07025701739222975</v>
+        <v>0.0709680069521377</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1673890503279592</v>
+        <v>0.1743564599871683</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -999,19 +999,19 @@
         <v>72028</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57237</v>
+        <v>56777</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88032</v>
+        <v>87414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2034160035630874</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1616461108823616</v>
+        <v>0.1603472165995455</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2486133857599271</v>
+        <v>0.2468699504755136</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>68074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54347</v>
+        <v>55506</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80587</v>
+        <v>82532</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3496501231952319</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2791443321682776</v>
+        <v>0.2850958463637486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.413918476856116</v>
+        <v>0.4239063808913241</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1049,19 +1049,19 @@
         <v>66213</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54431</v>
+        <v>53924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78741</v>
+        <v>80079</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4153938470409096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3414819973728497</v>
+        <v>0.3382970969564861</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4939922186880234</v>
+        <v>0.5023875075415528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>127</v>
@@ -1070,19 +1070,19 @@
         <v>134287</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115014</v>
+        <v>115649</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>152717</v>
+        <v>153296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3792453291251197</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3248147216072496</v>
+        <v>0.3266093847093966</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4312937008340192</v>
+        <v>0.4329307854126968</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>25409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16976</v>
+        <v>17039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>36280</v>
+        <v>36184</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1305080350654658</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08719134347796785</v>
+        <v>0.087514834385875</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1863436886543441</v>
+        <v>0.1858532444662744</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>37</v>
@@ -1120,19 +1120,19 @@
         <v>45011</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35177</v>
+        <v>33172</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59088</v>
+        <v>57605</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2823811074171376</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.220686011419648</v>
+        <v>0.2081108459890521</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3706941010340912</v>
+        <v>0.3613902786605719</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -1141,19 +1141,19 @@
         <v>70420</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>54480</v>
+        <v>55851</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>86821</v>
+        <v>88479</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1988752431962839</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1538595643160955</v>
+        <v>0.1577313119187185</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2451959900214251</v>
+        <v>0.2498758420778409</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>34820</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23188</v>
+        <v>24684</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48339</v>
+        <v>48752</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06904563246027716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04598036576488139</v>
+        <v>0.04894717576373965</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09585287505006831</v>
+        <v>0.0966708483447804</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1266,19 +1266,19 @@
         <v>11223</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5140</v>
+        <v>6139</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19127</v>
+        <v>19265</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04740108347966603</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0217085053677722</v>
+        <v>0.02592844954064154</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08078242375702802</v>
+        <v>0.08136865607991974</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -1287,19 +1287,19 @@
         <v>46043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>34197</v>
+        <v>34648</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60951</v>
+        <v>59773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06213034071426569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0461456248945375</v>
+        <v>0.0467535096430619</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0822470771202983</v>
+        <v>0.08065744564325812</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>40649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28560</v>
+        <v>28888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54523</v>
+        <v>55137</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08060434773888196</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05663306598004828</v>
+        <v>0.05728363591310782</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1081156186749402</v>
+        <v>0.1093333495106086</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -1337,19 +1337,19 @@
         <v>11082</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5848</v>
+        <v>5813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18655</v>
+        <v>19332</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04680612391396802</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02469776728271382</v>
+        <v>0.02455079780638546</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0787913392072677</v>
+        <v>0.08164839396676771</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1358,19 +1358,19 @@
         <v>51731</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39461</v>
+        <v>39618</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69325</v>
+        <v>66534</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06980603642014564</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05324818114809488</v>
+        <v>0.05346041337161811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09354620902587442</v>
+        <v>0.08978114714105832</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>28480</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18772</v>
+        <v>18653</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40268</v>
+        <v>41648</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05647419617177658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03722265738689733</v>
+        <v>0.03698685026270061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07984763974313307</v>
+        <v>0.08258544517482933</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1408,19 +1408,19 @@
         <v>16535</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9965</v>
+        <v>9275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25449</v>
+        <v>25640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06983454182453785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04208605304375301</v>
+        <v>0.0391753708652329</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1074828928610508</v>
+        <v>0.1082936657130958</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1429,19 +1429,19 @@
         <v>45015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32830</v>
+        <v>33873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60153</v>
+        <v>60947</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06074273917071652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04430068440707881</v>
+        <v>0.04570798043580469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08116981420385282</v>
+        <v>0.08224150074256613</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>120163</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101736</v>
+        <v>102238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139706</v>
+        <v>143005</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2382737283213868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2017341249895446</v>
+        <v>0.2027295584146079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.277026425799794</v>
+        <v>0.2835685732964431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1479,19 +1479,19 @@
         <v>37616</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26983</v>
+        <v>27407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>48999</v>
+        <v>48992</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1588742462586182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1139636159021357</v>
+        <v>0.115753085451955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.206951080846894</v>
+        <v>0.2069212686401486</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -1500,19 +1500,19 @@
         <v>157779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135145</v>
+        <v>135782</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181711</v>
+        <v>183093</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2129061134342344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1823642014059259</v>
+        <v>0.1832236255598531</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2452000029514149</v>
+        <v>0.2470648849248042</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>202052</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>180368</v>
+        <v>179646</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>225773</v>
+        <v>224434</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4006530624951958</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3576550223443534</v>
+        <v>0.3562242337727627</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4476906123076283</v>
+        <v>0.4450348889930892</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>102</v>
@@ -1550,19 +1550,19 @@
         <v>108758</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>93030</v>
+        <v>92865</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>123981</v>
+        <v>125790</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4593429780077282</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3929162329635869</v>
+        <v>0.3922206005336345</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5236401356204513</v>
+        <v>0.5312793195040094</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>293</v>
@@ -1571,19 +1571,19 @@
         <v>310809</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>282297</v>
+        <v>281794</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>340682</v>
+        <v>337988</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4194041064038255</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3809294534434989</v>
+        <v>0.3802506411200167</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4597132081995809</v>
+        <v>0.4560779729824411</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>78142</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63153</v>
+        <v>62644</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96093</v>
+        <v>96393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1549490328124817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1252270510041268</v>
+        <v>0.1242192049129387</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.190545280352006</v>
+        <v>0.1911392775591862</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1621,19 +1621,19 @@
         <v>51554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38865</v>
+        <v>39403</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66242</v>
+        <v>66289</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2177410265154817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1641463336476808</v>
+        <v>0.1664199795144573</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2797762216402846</v>
+        <v>0.2799754154316413</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>118</v>
@@ -1642,19 +1642,19 @@
         <v>129696</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109623</v>
+        <v>107761</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153742</v>
+        <v>151657</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1750106638568122</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1479242378704089</v>
+        <v>0.1454123631940306</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2074586463025719</v>
+        <v>0.204645033648806</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>24276</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15961</v>
+        <v>15827</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37038</v>
+        <v>37230</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04358405142988421</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02865488871645457</v>
+        <v>0.02841590099551248</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06649539875131895</v>
+        <v>0.06684178535787806</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1767,19 +1767,19 @@
         <v>22163</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14169</v>
+        <v>14204</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32728</v>
+        <v>32518</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08380844039523343</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05358191601144351</v>
+        <v>0.05371209169974249</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1237619439316073</v>
+        <v>0.122967785856887</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -1788,19 +1788,19 @@
         <v>46439</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33853</v>
+        <v>35062</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59323</v>
+        <v>61174</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05653345786602337</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04121223364050934</v>
+        <v>0.04268308204716623</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0722186993564652</v>
+        <v>0.07447207359401563</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>42101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30902</v>
+        <v>30597</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57703</v>
+        <v>56612</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07558668416861843</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05547947511384395</v>
+        <v>0.05493221026433954</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1035980469771183</v>
+        <v>0.1016378587476603</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -1838,19 +1838,19 @@
         <v>22581</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14824</v>
+        <v>14130</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32852</v>
+        <v>32891</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08539128007298928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05605880433644472</v>
+        <v>0.05343432025337699</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1242312811389988</v>
+        <v>0.124378019320838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -1859,19 +1859,19 @@
         <v>64683</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49359</v>
+        <v>50923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79766</v>
+        <v>82179</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0787430701467168</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06008821579487784</v>
+        <v>0.06199236316712112</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09710576288023486</v>
+        <v>0.1000428783701873</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>46295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32888</v>
+        <v>32738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61134</v>
+        <v>61185</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08311492067049664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.059045893230639</v>
+        <v>0.05877707736714476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1097572693883213</v>
+        <v>0.1098486322468184</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -1909,19 +1909,19 @@
         <v>17964</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10976</v>
+        <v>10820</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28680</v>
+        <v>27764</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06793071031832837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04150596604699441</v>
+        <v>0.04091674934876503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1084535328720106</v>
+        <v>0.1049891192307687</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>58</v>
@@ -1930,19 +1930,19 @@
         <v>64258</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49937</v>
+        <v>49441</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83271</v>
+        <v>83908</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07822667957300129</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06079257299932467</v>
+        <v>0.06018830162032128</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.101372567790704</v>
+        <v>0.102147033096077</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>142726</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>122744</v>
+        <v>122088</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>164668</v>
+        <v>164047</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2562431990746268</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2203693877353289</v>
+        <v>0.2191907576014895</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.295637040394172</v>
+        <v>0.2945224419691974</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>59</v>
@@ -1980,19 +1980,19 @@
         <v>59062</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>46011</v>
+        <v>46710</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>74906</v>
+        <v>73996</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.223342470994837</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1739904284263047</v>
+        <v>0.1766324269931533</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2832591308231007</v>
+        <v>0.2798151341682033</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>198</v>
@@ -2001,19 +2001,19 @@
         <v>201788</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>178291</v>
+        <v>177000</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>226069</v>
+        <v>228198</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.245651493124361</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.217046571083713</v>
+        <v>0.2154752937354108</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2752104002818339</v>
+        <v>0.277802171940037</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>211279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188385</v>
+        <v>189758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>235367</v>
+        <v>235887</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3793204064325583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3382165610801772</v>
+        <v>0.3406823447646222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4225658859070867</v>
+        <v>0.4234994456244894</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -2051,19 +2051,19 @@
         <v>84059</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68979</v>
+        <v>69173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>99237</v>
+        <v>99696</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3178682728776768</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2608459790122746</v>
+        <v>0.2615796197252397</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3752666185352297</v>
+        <v>0.3770015278381023</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>291</v>
@@ -2072,19 +2072,19 @@
         <v>295338</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>270226</v>
+        <v>265831</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>322451</v>
+        <v>321617</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3595371685950471</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.328966297482748</v>
+        <v>0.323616841451095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3925446476027886</v>
+        <v>0.391529285973467</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>90317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74513</v>
+        <v>73805</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>110445</v>
+        <v>108554</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1621507382238156</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1337769893217413</v>
+        <v>0.1325067656465218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.198287188602214</v>
+        <v>0.1948926825669738</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -2122,19 +2122,19 @@
         <v>58617</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>46192</v>
+        <v>45696</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>74216</v>
+        <v>73436</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2216588253409351</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1746761870158106</v>
+        <v>0.1727998287585404</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2806472896354943</v>
+        <v>0.2776988023391457</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>144</v>
@@ -2143,19 +2143,19 @@
         <v>148934</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>127479</v>
+        <v>128603</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>173110</v>
+        <v>173534</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1813081306948504</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1551895701707794</v>
+        <v>0.1565579466712205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2107398134537105</v>
+        <v>0.2112559042085642</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>32389</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21212</v>
+        <v>22493</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44338</v>
+        <v>44365</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.13373550301108</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08758670771026103</v>
+        <v>0.09287567898196714</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1830743058242732</v>
+        <v>0.1831836434542463</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2268,19 +2268,19 @@
         <v>13026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7760</v>
+        <v>6999</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20565</v>
+        <v>21018</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1072615888073754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06390315557031791</v>
+        <v>0.05763439848798542</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1693462650041595</v>
+        <v>0.1730765932506706</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -2289,19 +2289,19 @@
         <v>45414</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32552</v>
+        <v>34208</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60173</v>
+        <v>61110</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1248940910369914</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08952033902467194</v>
+        <v>0.09407596273324327</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.165481586837083</v>
+        <v>0.1680585278830911</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>22666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14206</v>
+        <v>14314</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>33545</v>
+        <v>33796</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09358730338954235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05865712001609455</v>
+        <v>0.05910370256244212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1385080733597825</v>
+        <v>0.1395437361021233</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -2339,19 +2339,19 @@
         <v>13772</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8159</v>
+        <v>7480</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22167</v>
+        <v>21771</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1134075578096412</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06718291491939263</v>
+        <v>0.06159798899573077</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.182534633165438</v>
+        <v>0.1792759937094125</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -2360,19 +2360,19 @@
         <v>36438</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25285</v>
+        <v>26104</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48691</v>
+        <v>49393</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1002066130016745</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06953689671056083</v>
+        <v>0.07178734251654649</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1339040726013693</v>
+        <v>0.1358364829418762</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>17756</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11019</v>
+        <v>10593</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28135</v>
+        <v>27360</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07331495336281936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04549712561526544</v>
+        <v>0.04374026886742759</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1161720416739967</v>
+        <v>0.1129704868330476</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -2410,19 +2410,19 @@
         <v>9990</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5015</v>
+        <v>5137</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17806</v>
+        <v>16440</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08226440789990042</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0412936500050421</v>
+        <v>0.04230184256138042</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1466256287852861</v>
+        <v>0.1353808125021125</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -2431,19 +2431,19 @@
         <v>27746</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19072</v>
+        <v>19323</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>39458</v>
+        <v>39009</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07630377526111792</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05244990228425944</v>
+        <v>0.05313944941804283</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1085139242431129</v>
+        <v>0.1072773600780177</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>54231</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41336</v>
+        <v>41601</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70173</v>
+        <v>69320</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2239216049183403</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.170679053467102</v>
+        <v>0.1717709321468471</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.289748840152647</v>
+        <v>0.2862275819477729</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -2481,19 +2481,19 @@
         <v>24833</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17603</v>
+        <v>16483</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>34308</v>
+        <v>34112</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2044906631092658</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1449544495777178</v>
+        <v>0.1357346498644242</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2825169166215882</v>
+        <v>0.2809025216229989</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>75</v>
@@ -2502,19 +2502,19 @@
         <v>79064</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63626</v>
+        <v>64610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>95201</v>
+        <v>98138</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.217432312845522</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1749770715647054</v>
+        <v>0.1776828942018518</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2618129954960949</v>
+        <v>0.2698890262023365</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>91068</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>74905</v>
+        <v>76248</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>106827</v>
+        <v>106774</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3760236683133147</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3092881744388034</v>
+        <v>0.3148316024469596</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4410944743495416</v>
+        <v>0.4408771470953439</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>41</v>
@@ -2552,19 +2552,19 @@
         <v>42314</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>33244</v>
+        <v>32041</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53216</v>
+        <v>52511</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3484405105837449</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2737490634754575</v>
+        <v>0.2638451273745612</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4382160959588599</v>
+        <v>0.4324092204365357</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>128</v>
@@ -2573,19 +2573,19 @@
         <v>133382</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>115856</v>
+        <v>116290</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151186</v>
+        <v>152404</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3668118056791423</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3186137174416371</v>
+        <v>0.3198088371158367</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4157750405823246</v>
+        <v>0.4191239056286024</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>24077</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15387</v>
+        <v>16271</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>34317</v>
+        <v>34969</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09941696700490328</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06353332983263989</v>
+        <v>0.06718486073241568</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1416970168378392</v>
+        <v>0.1443880519959558</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>17</v>
@@ -2623,19 +2623,19 @@
         <v>17503</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10102</v>
+        <v>10847</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>26362</v>
+        <v>26394</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1441352717900724</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08318358892847774</v>
+        <v>0.08932031586413319</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2170828574942906</v>
+        <v>0.2173441305784443</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -2644,19 +2644,19 @@
         <v>41581</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>29834</v>
+        <v>31703</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>54707</v>
+        <v>55587</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1143514021755518</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08204755825317638</v>
+        <v>0.08718754710468354</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1504483166161067</v>
+        <v>0.1528698579857781</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>113160</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>94258</v>
+        <v>94228</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>133741</v>
+        <v>134526</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07553163091099821</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06291475704487502</v>
+        <v>0.06289517279539845</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0892692291375234</v>
+        <v>0.08979279350634826</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>53</v>
@@ -2769,19 +2769,19 @@
         <v>53231</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>39568</v>
+        <v>40925</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67926</v>
+        <v>70472</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06806635899241448</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05059539712166235</v>
+        <v>0.05233000857373803</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08685676808575275</v>
+        <v>0.09011237129675874</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>161</v>
@@ -2790,19 +2790,19 @@
         <v>166391</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>142190</v>
+        <v>143167</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>194995</v>
+        <v>192302</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07297126778236405</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.06235767641070711</v>
+        <v>0.0627861343619858</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08551546243481037</v>
+        <v>0.08433447742307749</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>118779</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>98670</v>
+        <v>95290</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>141118</v>
+        <v>142302</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07928196984637058</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06586002942831867</v>
+        <v>0.0636036821638199</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09419334626796368</v>
+        <v>0.09498320243744275</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -2840,19 +2840,19 @@
         <v>56380</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>44421</v>
+        <v>44526</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>72422</v>
+        <v>72600</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0720920837260975</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0568002873617328</v>
+        <v>0.05693495082722288</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09260586687348053</v>
+        <v>0.09283294167307</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>165</v>
@@ -2861,19 +2861,19 @@
         <v>175158</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>149884</v>
+        <v>149990</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>201620</v>
+        <v>201267</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07681605574140679</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06573207276376446</v>
+        <v>0.06577863911591751</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08842110201185187</v>
+        <v>0.0882664031722783</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>104899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>86768</v>
+        <v>86167</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>129561</v>
+        <v>128870</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.07001780856072229</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05791547833325</v>
+        <v>0.05751464232299287</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08647884229741483</v>
+        <v>0.0860179949716038</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -2911,19 +2911,19 @@
         <v>58675</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45007</v>
+        <v>44990</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>74940</v>
+        <v>73676</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0750269243275269</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05755004201901098</v>
+        <v>0.05752872748250557</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09582466261958103</v>
+        <v>0.09420875278988634</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>153</v>
@@ -2932,19 +2932,19 @@
         <v>163574</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>141104</v>
+        <v>139961</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>192893</v>
+        <v>187819</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07173578420263564</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06188159925808259</v>
+        <v>0.06138039612390877</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0845939666646877</v>
+        <v>0.08236843834422783</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>370923</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>336980</v>
+        <v>339218</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>404915</v>
+        <v>404105</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2475826552528314</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2249265545774329</v>
+        <v>0.2264200721172648</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2702717241982273</v>
+        <v>0.2697309882702562</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>140</v>
@@ -2982,19 +2982,19 @@
         <v>139735</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>118973</v>
+        <v>120508</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>159440</v>
+        <v>163650</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1786783319683249</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1521292756085955</v>
+        <v>0.1540925562813929</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2038749888782188</v>
+        <v>0.2092578517074533</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>500</v>
@@ -3003,19 +3003,19 @@
         <v>510658</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>468185</v>
+        <v>472481</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>552801</v>
+        <v>550849</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2239505503991601</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2053238216079901</v>
+        <v>0.2072078462765061</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2424323982125926</v>
+        <v>0.2415761762961449</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>572473</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>535568</v>
+        <v>539485</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>612172</v>
+        <v>612336</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3821125781865164</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3574798571145812</v>
+        <v>0.3600937845944486</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4086106869150614</v>
+        <v>0.408720267030076</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>289</v>
@@ -3053,19 +3053,19 @@
         <v>301343</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>272742</v>
+        <v>273882</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>329358</v>
+        <v>329338</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3853252395074991</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3487524901757104</v>
+        <v>0.3502113974251574</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4211481137302216</v>
+        <v>0.4211224618948392</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>839</v>
@@ -3074,19 +3074,19 @@
         <v>873816</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>830867</v>
+        <v>828583</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>920409</v>
+        <v>923211</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3832144241314118</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3643791153074092</v>
+        <v>0.3633775609295434</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4036480516885878</v>
+        <v>0.4048766038218071</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>217945</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>190001</v>
+        <v>188657</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>247047</v>
+        <v>244117</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1454733572425612</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1268214883240049</v>
+        <v>0.1259240998739551</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1648981302696054</v>
+        <v>0.1629427672811419</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>155</v>
@@ -3124,19 +3124,19 @@
         <v>172685</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>151111</v>
+        <v>150677</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>197961</v>
+        <v>196263</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2208110614781371</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1932238821108661</v>
+        <v>0.1926695315422649</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2531308518384908</v>
+        <v>0.2509599222262167</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>364</v>
@@ -3145,19 +3145,19 @@
         <v>390630</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>356773</v>
+        <v>352429</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>430002</v>
+        <v>428715</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1713119177430216</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1564638151387959</v>
+        <v>0.154558689832448</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1885787613374952</v>
+        <v>0.1880140459348734</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>11768</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5846</v>
+        <v>6093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20663</v>
+        <v>20932</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04754562663963433</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02361853831840881</v>
+        <v>0.02461468966588651</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08348015339393633</v>
+        <v>0.08456861221393699</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -3510,19 +3510,19 @@
         <v>13037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7181</v>
+        <v>7097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22304</v>
+        <v>22101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06775671441591032</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03732095450400974</v>
+        <v>0.03688732258994695</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1159237222893676</v>
+        <v>0.1148684034755139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -3531,19 +3531,19 @@
         <v>24805</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15941</v>
+        <v>15730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35754</v>
+        <v>35474</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05638516540204271</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03623714343316452</v>
+        <v>0.03575763508794856</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0812747097368043</v>
+        <v>0.08063803131685272</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>6536</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2742</v>
+        <v>2808</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13080</v>
+        <v>13485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02640499628492613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0110768727645245</v>
+        <v>0.011345105720998</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0528453970478641</v>
+        <v>0.05448299746667227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -3581,19 +3581,19 @@
         <v>10191</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4747</v>
+        <v>4269</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18006</v>
+        <v>18251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0529645519718354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02467350600483994</v>
+        <v>0.02219019562051246</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09358466737377386</v>
+        <v>0.09486032027715595</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -3602,19 +3602,19 @@
         <v>16726</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9902</v>
+        <v>9740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25920</v>
+        <v>26271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03802110644216167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02250980394816462</v>
+        <v>0.02214130838089697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05891978556113773</v>
+        <v>0.05971719019952291</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>9917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5612</v>
+        <v>4821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18317</v>
+        <v>16658</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04006604991896488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02267225500209864</v>
+        <v>0.01947696567074032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07400231281602028</v>
+        <v>0.0673006582592743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -3652,19 +3652,19 @@
         <v>11234</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5483</v>
+        <v>6065</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20346</v>
+        <v>21201</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05838546894535326</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02849937152049539</v>
+        <v>0.03152366045829686</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1057451984524423</v>
+        <v>0.1101905260308269</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>20</v>
@@ -3673,19 +3673,19 @@
         <v>21151</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13386</v>
+        <v>13360</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31222</v>
+        <v>31869</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04807824680718201</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0304276465088374</v>
+        <v>0.03037000918872031</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07097326748963936</v>
+        <v>0.07244231109294072</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>37021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25400</v>
+        <v>26169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50077</v>
+        <v>49897</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.149569901200278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1026198758801573</v>
+        <v>0.1057278595247559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.202320129824985</v>
+        <v>0.2015938059485118</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -3723,19 +3723,19 @@
         <v>17015</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10048</v>
+        <v>10081</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26892</v>
+        <v>25837</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08843227887842595</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0522257561644019</v>
+        <v>0.05239548482574193</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1397708282329874</v>
+        <v>0.1342840685232422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -3744,19 +3744,19 @@
         <v>54036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39206</v>
+        <v>40958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69051</v>
+        <v>69397</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1228306980293405</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08912012431999279</v>
+        <v>0.09310412796785325</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1569635789803371</v>
+        <v>0.1577491000939276</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>116943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101258</v>
+        <v>100155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>134235</v>
+        <v>134125</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4724679963886262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4090969219660053</v>
+        <v>0.4046407401345922</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5423297138996895</v>
+        <v>0.5418844220530262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -3794,19 +3794,19 @@
         <v>77702</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>63603</v>
+        <v>64868</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>91404</v>
+        <v>92803</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.403852459023128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3305694267300536</v>
+        <v>0.3371487476551454</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4750652502053976</v>
+        <v>0.4823374539945559</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>177</v>
@@ -3815,19 +3815,19 @@
         <v>194646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>174379</v>
+        <v>173363</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>217975</v>
+        <v>216311</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4424582458517078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3963896813767785</v>
+        <v>0.3940796523649268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4954879140843309</v>
+        <v>0.4917068448296413</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>65330</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>51943</v>
+        <v>52159</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>78866</v>
+        <v>81825</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2639454295675704</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.209856687854017</v>
+        <v>0.2107302286329155</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3186331889359403</v>
+        <v>0.3305841688480903</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -3865,19 +3865,19 @@
         <v>63225</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50285</v>
+        <v>51093</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>76413</v>
+        <v>77208</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3286085267653471</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2613501658058638</v>
+        <v>0.2655542604980908</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3971482917614796</v>
+        <v>0.4012838959074099</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>123</v>
@@ -3886,19 +3886,19 @@
         <v>128556</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>109597</v>
+        <v>110866</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>146782</v>
+        <v>146636</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2922265374675653</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2491290789667338</v>
+        <v>0.2520144344671265</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3336560302974609</v>
+        <v>0.333324710863133</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>34089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24621</v>
+        <v>23068</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48252</v>
+        <v>46020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0991379074404692</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07160323760715237</v>
+        <v>0.06708664330275972</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.140325802988487</v>
+        <v>0.1338361815092101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -4011,19 +4011,19 @@
         <v>13112</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7104</v>
+        <v>7068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21059</v>
+        <v>21846</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05801109174267684</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03143103732503792</v>
+        <v>0.03127102887538125</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09316640269637097</v>
+        <v>0.09664749219616767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>46</v>
@@ -4032,19 +4032,19 @@
         <v>47202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35159</v>
+        <v>35551</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61801</v>
+        <v>62867</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0828258745305383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06169458046189555</v>
+        <v>0.06238287087896544</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1084442376036355</v>
+        <v>0.1103143264788832</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>21946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14238</v>
+        <v>14043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32303</v>
+        <v>31600</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06382280187505697</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04140811274169252</v>
+        <v>0.04083994748253688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09394330615317106</v>
+        <v>0.09189944747118343</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -4082,19 +4082,19 @@
         <v>15982</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10028</v>
+        <v>9667</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24687</v>
+        <v>25047</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07070557013025422</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04436603149892544</v>
+        <v>0.04276835680467044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.109216406458332</v>
+        <v>0.1108104518529961</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -4103,19 +4103,19 @@
         <v>37928</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26731</v>
+        <v>27398</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50004</v>
+        <v>51029</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06655269818201155</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04690492186589102</v>
+        <v>0.04807523315125695</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08774296986874902</v>
+        <v>0.08954197062587681</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>13284</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7619</v>
+        <v>7416</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21635</v>
+        <v>21911</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03863253154820439</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02215730121147967</v>
+        <v>0.02156672525542349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06291915205986438</v>
+        <v>0.06372050909710639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -4153,19 +4153,19 @@
         <v>18940</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11333</v>
+        <v>11699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30777</v>
+        <v>29642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08379464301591588</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05013873529279581</v>
+        <v>0.05175870061358794</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1361610592985374</v>
+        <v>0.1311388589927446</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -4174,19 +4174,19 @@
         <v>32224</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23420</v>
+        <v>21744</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46118</v>
+        <v>46223</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05654507439996769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04109537757441001</v>
+        <v>0.03815482485520313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08092488573984602</v>
+        <v>0.08110949489081136</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>62577</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48301</v>
+        <v>48357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78177</v>
+        <v>77825</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1819847230443032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1404678715557721</v>
+        <v>0.1406325591922857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.227353159256925</v>
+        <v>0.2263310720487114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -4224,19 +4224,19 @@
         <v>32311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22549</v>
+        <v>22381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44867</v>
+        <v>44109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1429459414156863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09975892024148861</v>
+        <v>0.09901806568896382</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1984949085964664</v>
+        <v>0.1951421156030648</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -4245,19 +4245,19 @@
         <v>94887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>77406</v>
+        <v>78646</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>113836</v>
+        <v>114861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1665008622132351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1358264518667392</v>
+        <v>0.1380024706361362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1997500524586189</v>
+        <v>0.2015491306023925</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>133355</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>114211</v>
+        <v>114630</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>150225</v>
+        <v>150718</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3878211878281728</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3321476204608902</v>
+        <v>0.3333676364806364</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4368834796599575</v>
+        <v>0.4383178820518139</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>79</v>
@@ -4295,19 +4295,19 @@
         <v>83940</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>70361</v>
+        <v>67830</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100617</v>
+        <v>97528</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3713595094285252</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3112828345181488</v>
+        <v>0.3000890966202998</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4451407451488603</v>
+        <v>0.4314740427459088</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>209</v>
@@ -4316,19 +4316,19 @@
         <v>217295</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>193099</v>
+        <v>194079</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>242467</v>
+        <v>242167</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3812920307501994</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3388363570847491</v>
+        <v>0.3405547652009894</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4254634562721968</v>
+        <v>0.4249370659497028</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>78606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62613</v>
+        <v>64501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95093</v>
+        <v>95473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2286008482637934</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1820893786479604</v>
+        <v>0.1875805634430987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2765493834758675</v>
+        <v>0.2776530269906082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -4366,19 +4366,19 @@
         <v>61749</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>47482</v>
+        <v>48654</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77352</v>
+        <v>77362</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2731832442669415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2100662716597377</v>
+        <v>0.2152495581363723</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3422132915163452</v>
+        <v>0.3422581637635352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -4387,19 +4387,19 @@
         <v>140354</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119079</v>
+        <v>120226</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163829</v>
+        <v>162560</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.246283459924048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2089504897179341</v>
+        <v>0.2109628094251846</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2874742235468283</v>
+        <v>0.2852481688106335</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>33470</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21847</v>
+        <v>23262</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45940</v>
+        <v>47865</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08211837195571239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05360283639785095</v>
+        <v>0.05707251381628832</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1127155315660796</v>
+        <v>0.1174372444978625</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -4512,19 +4512,19 @@
         <v>9576</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4453</v>
+        <v>4005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17749</v>
+        <v>17885</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03795206841451233</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01764762819843359</v>
+        <v>0.01587437260225559</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07034434050232392</v>
+        <v>0.07088301009538039</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -4533,19 +4533,19 @@
         <v>43046</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30741</v>
+        <v>30332</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>58902</v>
+        <v>59937</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06523103207750464</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04658467255714645</v>
+        <v>0.04596509790683864</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08926024315274214</v>
+        <v>0.09082755283000989</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>31792</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21545</v>
+        <v>21674</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45738</v>
+        <v>45599</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07800213520407384</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05286155821451111</v>
+        <v>0.05317792824015433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1122195434077795</v>
+        <v>0.1118786482209696</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -4583,19 +4583,19 @@
         <v>15894</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9878</v>
+        <v>9651</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25077</v>
+        <v>24966</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06299149012724449</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03914963822539051</v>
+        <v>0.03825145095937984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09938881714640412</v>
+        <v>0.09894837136611521</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>45</v>
@@ -4604,19 +4604,19 @@
         <v>47686</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36206</v>
+        <v>35405</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62992</v>
+        <v>64018</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07226269484164691</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05486596143058194</v>
+        <v>0.0536518499388332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09545747633605235</v>
+        <v>0.09701257218784705</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>24000</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15036</v>
+        <v>15822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>35412</v>
+        <v>36652</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05888348102836498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03689062125197697</v>
+        <v>0.03882062923032923</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08688464846862362</v>
+        <v>0.08992537096775012</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -4654,19 +4654,19 @@
         <v>15050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8974</v>
+        <v>8222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25095</v>
+        <v>23804</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05964844946706802</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03556478917497793</v>
+        <v>0.03258760091665602</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09945942833256809</v>
+        <v>0.0943414013781136</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -4675,19 +4675,19 @@
         <v>39050</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28140</v>
+        <v>27369</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>53224</v>
+        <v>55129</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05917597283738471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04264297323805191</v>
+        <v>0.04147483263778532</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08065483916227184</v>
+        <v>0.0835423680553344</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>87129</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>71572</v>
+        <v>71073</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>105878</v>
+        <v>105551</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2137717252941297</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.175601964401619</v>
+        <v>0.1743773958598157</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2597719509351877</v>
+        <v>0.2589706099244423</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -4725,19 +4725,19 @@
         <v>50919</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>40078</v>
+        <v>39251</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64116</v>
+        <v>63710</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2018061474690862</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1588419483962345</v>
+        <v>0.1555644689317391</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2541098043021173</v>
+        <v>0.2525023355660163</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>133</v>
@@ -4746,19 +4746,19 @@
         <v>138048</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>117200</v>
+        <v>117003</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>160485</v>
+        <v>160559</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2091965907827672</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1776047147724925</v>
+        <v>0.177305556551599</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2431982443854607</v>
+        <v>0.2433097198585512</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>154603</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134058</v>
+        <v>132893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>175061</v>
+        <v>173010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3793204456661964</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3289130137406271</v>
+        <v>0.3260545455710527</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.429514738549395</v>
+        <v>0.4244816732321861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>90</v>
@@ -4796,19 +4796,19 @@
         <v>94774</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>79619</v>
+        <v>79671</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>109834</v>
+        <v>111163</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3756148678475512</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3155519952217695</v>
+        <v>0.3157597273973969</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4353037861452481</v>
+        <v>0.4405697653925388</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>237</v>
@@ -4817,19 +4817,19 @@
         <v>249377</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222292</v>
+        <v>223769</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>275633</v>
+        <v>274675</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3779035883099942</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3368590073130156</v>
+        <v>0.3390985197554921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4176927596693057</v>
+        <v>0.4162400784763016</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>76586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61535</v>
+        <v>61556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94403</v>
+        <v>94161</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1879038408515227</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1509780546980171</v>
+        <v>0.1510283837790807</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2316193968503877</v>
+        <v>0.2310250540372737</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -4867,19 +4867,19 @@
         <v>66104</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51179</v>
+        <v>53440</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79605</v>
+        <v>80900</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2619869766745379</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2028380015623837</v>
+        <v>0.2117984212238462</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3154983158482269</v>
+        <v>0.3206290113476216</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>134</v>
@@ -4888,19 +4888,19 @@
         <v>142689</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>120292</v>
+        <v>122935</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>163585</v>
+        <v>165603</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2162301211507024</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1822890697327398</v>
+        <v>0.1862948580361835</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2478958659933261</v>
+        <v>0.2509531397054813</v>
       </c>
     </row>
     <row r="24">
@@ -4992,19 +4992,19 @@
         <v>39023</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26982</v>
+        <v>27756</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53434</v>
+        <v>52790</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1505407357559585</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1040873917861106</v>
+        <v>0.1070734989878656</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2061315822107888</v>
+        <v>0.2036488174373545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -5013,19 +5013,19 @@
         <v>30923</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21409</v>
+        <v>21124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42675</v>
+        <v>42431</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1983578074784041</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1373304563865793</v>
+        <v>0.1355002650810515</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2737455934753831</v>
+        <v>0.2721776230250931</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -5034,19 +5034,19 @@
         <v>69946</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55587</v>
+        <v>54042</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90476</v>
+        <v>89599</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1684981544811653</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1339061456736704</v>
+        <v>0.1301842678815301</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2179524213660755</v>
+        <v>0.2158409305871223</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>27991</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18792</v>
+        <v>18885</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40869</v>
+        <v>41203</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1079793098860306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07249456586955264</v>
+        <v>0.0728507134554167</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1576608501002205</v>
+        <v>0.158948036696493</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -5084,19 +5084,19 @@
         <v>14994</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8921</v>
+        <v>8970</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23531</v>
+        <v>24103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09617803810526106</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05722440217288451</v>
+        <v>0.05754055033670604</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1509451367963502</v>
+        <v>0.1546102725595837</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -5105,19 +5105,19 @@
         <v>42984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30297</v>
+        <v>31691</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57294</v>
+        <v>58825</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1035474120047187</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07298348122359294</v>
+        <v>0.0763431697076241</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1380204336631076</v>
+        <v>0.1417064517993925</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>13264</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7397</v>
+        <v>6960</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20910</v>
+        <v>21527</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05116889444578233</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02853694161454239</v>
+        <v>0.02684996356620559</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08066335691720883</v>
+        <v>0.08304628520827301</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -5155,19 +5155,19 @@
         <v>7863</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3058</v>
+        <v>2963</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15365</v>
+        <v>14922</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05043603366557978</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0196179269940228</v>
+        <v>0.01900821724096837</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09856232659589934</v>
+        <v>0.09571601143182099</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>21</v>
@@ -5176,19 +5176,19 @@
         <v>21127</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>13405</v>
+        <v>13004</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>32147</v>
+        <v>31472</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05089367291039078</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03229242440888783</v>
+        <v>0.03132708644121711</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0774400862417509</v>
+        <v>0.07581572002982534</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>48840</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36769</v>
+        <v>36401</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64250</v>
+        <v>63534</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1884088272108397</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1418440714036429</v>
+        <v>0.1404228372276557</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2478568887997426</v>
+        <v>0.2450936815873453</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -5226,19 +5226,19 @@
         <v>27641</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>18815</v>
+        <v>19563</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39128</v>
+        <v>40627</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1773078340455022</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.120690416324828</v>
+        <v>0.1254859568622763</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2509908980409886</v>
+        <v>0.2606061280918838</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -5247,19 +5247,19 @@
         <v>76481</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>60719</v>
+        <v>60671</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>94524</v>
+        <v>93542</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.184239914825474</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1462709888059152</v>
+        <v>0.1461542731938787</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2277057455312693</v>
+        <v>0.22533892916818</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>84100</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69043</v>
+        <v>69641</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>99334</v>
+        <v>101044</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3244326840395408</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2663473385885915</v>
+        <v>0.2686522353060908</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3831995510595125</v>
+        <v>0.3897988824386347</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -5297,19 +5297,19 @@
         <v>35178</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>25576</v>
+        <v>25362</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47709</v>
+        <v>48094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2256547659937732</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1640606178064387</v>
+        <v>0.1626851491240852</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3060340808006387</v>
+        <v>0.3085067836130641</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>113</v>
@@ -5318,19 +5318,19 @@
         <v>119278</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>98710</v>
+        <v>100177</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>136151</v>
+        <v>138237</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2873372206149294</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2377884434152442</v>
+        <v>0.2413222525202066</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3279842027285756</v>
+        <v>0.3330083767369437</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>46004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33128</v>
+        <v>34895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59153</v>
+        <v>59606</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.177469548661848</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1277963203515445</v>
+        <v>0.1346143921904956</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2281928040285106</v>
+        <v>0.229941062969363</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -5368,19 +5368,19 @@
         <v>39296</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28190</v>
+        <v>29959</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51317</v>
+        <v>52185</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2520655207114797</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.180830003430977</v>
+        <v>0.1921726994702595</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3291799501927146</v>
+        <v>0.3347439238053097</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>79</v>
@@ -5389,19 +5389,19 @@
         <v>85300</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>68781</v>
+        <v>69929</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104416</v>
+        <v>105389</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2054836251633219</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1656908513743854</v>
+        <v>0.1684554397413705</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2515353689298552</v>
+        <v>0.2538790542051598</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>118351</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>97749</v>
+        <v>98231</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>142889</v>
+        <v>143134</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09406550584801109</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07769151470973852</v>
+        <v>0.07807445672088202</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1135686127959366</v>
+        <v>0.1137636963970317</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>61</v>
@@ -5514,19 +5514,19 @@
         <v>66648</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>51092</v>
+        <v>51035</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>84315</v>
+        <v>84681</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08062428612158372</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06180683692176703</v>
+        <v>0.06173770149706252</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.101996699158015</v>
+        <v>0.1024389383895781</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>166</v>
@@ -5535,19 +5535,19 @@
         <v>184998</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>158322</v>
+        <v>160909</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>217404</v>
+        <v>217416</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08873595363054675</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07594054436475076</v>
+        <v>0.07718148963507088</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1042797435357423</v>
+        <v>0.1042853725227214</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>88264</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>70267</v>
+        <v>70608</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>108043</v>
+        <v>109616</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07015265226075038</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05584852335825687</v>
+        <v>0.05611987422451275</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08587262882882843</v>
+        <v>0.08712289528345452</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -5585,19 +5585,19 @@
         <v>57060</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>43624</v>
+        <v>42822</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>73369</v>
+        <v>73391</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06902553411426711</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05277251521656875</v>
+        <v>0.05180223869343437</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08875518187607989</v>
+        <v>0.08878197762860356</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>137</v>
@@ -5606,19 +5606,19 @@
         <v>145324</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>122408</v>
+        <v>120859</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>172347</v>
+        <v>170675</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06970574080931985</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.058713969949501</v>
+        <v>0.0579710550946638</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0826677088068181</v>
+        <v>0.0818655658236533</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>60465</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>47080</v>
+        <v>46275</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>77429</v>
+        <v>75034</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04805761328640436</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03741963052884597</v>
+        <v>0.03677987856255598</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06154069393975212</v>
+        <v>0.05963692972320087</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>47</v>
@@ -5656,19 +5656,19 @@
         <v>53087</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39126</v>
+        <v>39948</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>69552</v>
+        <v>68260</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06421956043856783</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04733082230240124</v>
+        <v>0.04832567018374382</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08413698574355724</v>
+        <v>0.08257406233520015</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>107</v>
@@ -5677,19 +5677,19 @@
         <v>113552</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>94096</v>
+        <v>94941</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>137598</v>
+        <v>137770</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05446595590980472</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04513386797747542</v>
+        <v>0.04553904276964687</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06600006112021346</v>
+        <v>0.06608228621472242</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>235566</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>207554</v>
+        <v>206614</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>264998</v>
+        <v>264170</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1872286851965191</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1649647635597015</v>
+        <v>0.1642176481984623</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2106217940196791</v>
+        <v>0.2099630675784736</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>119</v>
@@ -5727,19 +5727,19 @@
         <v>127886</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>106884</v>
+        <v>107757</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>150318</v>
+        <v>151799</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1547037914998418</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1292975886349019</v>
+        <v>0.1303540479974866</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1818405017796009</v>
+        <v>0.1836323772678869</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>342</v>
@@ -5748,19 +5748,19 @@
         <v>363451</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>327730</v>
+        <v>325168</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>398069</v>
+        <v>399996</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1743323020667127</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1571983390882315</v>
+        <v>0.1559694965972256</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1909368666235154</v>
+        <v>0.1918611150144503</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>489001</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>456474</v>
+        <v>452731</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>525103</v>
+        <v>524801</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3886596962123202</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3628070396396767</v>
+        <v>0.3598324248969463</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4173539401671364</v>
+        <v>0.4171135853114753</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>272</v>
@@ -5798,19 +5798,19 @@
         <v>291594</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>263443</v>
+        <v>264778</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>320426</v>
+        <v>323393</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3527432167703754</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3186882866569254</v>
+        <v>0.3203034146579777</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3876204749753926</v>
+        <v>0.3912100823584629</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>736</v>
@@ -5819,19 +5819,19 @@
         <v>780595</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>737281</v>
+        <v>737506</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>829354</v>
+        <v>827797</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3744185219328035</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3536428584543975</v>
+        <v>0.3537505639583809</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3978060056879882</v>
+        <v>0.3970594770912696</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>266526</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>238069</v>
+        <v>238617</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>297664</v>
+        <v>296031</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2118358471959949</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1892179832390463</v>
+        <v>0.1896540185281263</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2365846946398494</v>
+        <v>0.2352863530657192</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>212</v>
@@ -5869,19 +5869,19 @@
         <v>230373</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>203360</v>
+        <v>203084</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>256241</v>
+        <v>254010</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2786836110553642</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.246005892496074</v>
+        <v>0.2456715496935412</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3099762955128644</v>
+        <v>0.3072773027714363</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>462</v>
@@ -5890,19 +5890,19 @@
         <v>496899</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>456075</v>
+        <v>456829</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>537514</v>
+        <v>539630</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2383415256508124</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2187600062553902</v>
+        <v>0.2191217773423748</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2578230904407265</v>
+        <v>0.2588380386212631</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>20237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12629</v>
+        <v>12988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31356</v>
+        <v>31895</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07408849830742535</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04623390144389494</v>
+        <v>0.04754838089817436</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1147933422420884</v>
+        <v>0.1167678361239139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -6255,19 +6255,19 @@
         <v>13899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7883</v>
+        <v>8017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22792</v>
+        <v>22328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05649293630141024</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03203984538179884</v>
+        <v>0.0325852531228104</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09263814543057919</v>
+        <v>0.09075120317462949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -6276,19 +6276,19 @@
         <v>34137</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24230</v>
+        <v>24267</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48364</v>
+        <v>47638</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06575026041413481</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04666882769658549</v>
+        <v>0.04674050391106399</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09315370037868748</v>
+        <v>0.09175527250980842</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>15690</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8397</v>
+        <v>8482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25013</v>
+        <v>25445</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05744083573443973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03074101983218623</v>
+        <v>0.03105361555752367</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09157219680755699</v>
+        <v>0.09315143770210325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -6326,19 +6326,19 @@
         <v>10486</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5186</v>
+        <v>5138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19166</v>
+        <v>18190</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04261859651524105</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02107821552509655</v>
+        <v>0.02088265713604978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07790103266308311</v>
+        <v>0.07393121469564239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -6347,19 +6347,19 @@
         <v>26176</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17065</v>
+        <v>16430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38321</v>
+        <v>38587</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05041682839220825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03286900151988115</v>
+        <v>0.03164572372492869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07381040015408907</v>
+        <v>0.07432138454494484</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>15610</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8108</v>
+        <v>8673</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25783</v>
+        <v>25317</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05714599286326735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02968154428550968</v>
+        <v>0.03175144996653934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09439242624988593</v>
+        <v>0.09268597089768936</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -6397,19 +6397,19 @@
         <v>16394</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9556</v>
+        <v>10406</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26683</v>
+        <v>26662</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06663456938946993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03883966621938183</v>
+        <v>0.04229706333698252</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.108451495532647</v>
+        <v>0.1083695449359304</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -6418,19 +6418,19 @@
         <v>32004</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22795</v>
+        <v>21362</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45736</v>
+        <v>44080</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06164246807202298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04390576248791406</v>
+        <v>0.04114578197464022</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08809162375077517</v>
+        <v>0.08490270215007238</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>71694</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58735</v>
+        <v>56597</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90296</v>
+        <v>86825</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2624694750429105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2150275767801726</v>
+        <v>0.2071994985644153</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3305715879374437</v>
+        <v>0.3178633635970139</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -6468,19 +6468,19 @@
         <v>52898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41023</v>
+        <v>41066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66868</v>
+        <v>66002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2150048790171763</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1667377494428231</v>
+        <v>0.1669114328519335</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.271784276608977</v>
+        <v>0.2682643176437073</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>121</v>
@@ -6489,19 +6489,19 @@
         <v>124592</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106387</v>
+        <v>106555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>144693</v>
+        <v>146641</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2399768093902755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2049114126825783</v>
+        <v>0.2052356604183748</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2786916659387245</v>
+        <v>0.2824437943320533</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>101265</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>85196</v>
+        <v>85258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>118554</v>
+        <v>119864</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3707271612949057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3119003494549498</v>
+        <v>0.3121262390393861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.434021916912547</v>
+        <v>0.4388173800691303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -6539,19 +6539,19 @@
         <v>87851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73041</v>
+        <v>72470</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103449</v>
+        <v>103078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3570701154734677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2968739139638558</v>
+        <v>0.294553456089962</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4204693164109672</v>
+        <v>0.4189615431099894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>179</v>
@@ -6560,19 +6560,19 @@
         <v>189116</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>167729</v>
+        <v>166098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>212759</v>
+        <v>211833</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3642553193077165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3230623058758655</v>
+        <v>0.3199202648725464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4097933422247877</v>
+        <v>0.4080100945017486</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>48656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>36247</v>
+        <v>36945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>64035</v>
+        <v>61350</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1781280367570514</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.132698001776988</v>
+        <v>0.1352533008447961</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2344302967232985</v>
+        <v>0.2245990492500644</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>62</v>
@@ -6610,19 +6610,19 @@
         <v>64505</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>51584</v>
+        <v>50739</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78826</v>
+        <v>80023</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2621789033032348</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2096640886697193</v>
+        <v>0.2062279816111768</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3203865740679357</v>
+        <v>0.3252515911686988</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>106</v>
@@ -6631,19 +6631,19 @@
         <v>113161</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>92859</v>
+        <v>95597</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>133590</v>
+        <v>133927</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2179583144236419</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1788554484244255</v>
+        <v>0.1841298875391593</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2573070717712173</v>
+        <v>0.2579554587525965</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>27600</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18662</v>
+        <v>19339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38644</v>
+        <v>38136</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07808846636937142</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05279979173408726</v>
+        <v>0.05471631693194867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1093359514705466</v>
+        <v>0.1078998709472401</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -6756,19 +6756,19 @@
         <v>33941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23408</v>
+        <v>23173</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46445</v>
+        <v>46842</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1426171802572989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09835922225692882</v>
+        <v>0.09737211709607682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1951603764744117</v>
+        <v>0.1968265798636639</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -6777,19 +6777,19 @@
         <v>61541</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46282</v>
+        <v>48592</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77609</v>
+        <v>78997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1040541736012224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07825415605147913</v>
+        <v>0.08215975290068801</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1312231931097066</v>
+        <v>0.1335692676113326</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>13743</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7749</v>
+        <v>7571</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24628</v>
+        <v>23803</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03888442156025309</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02192415821868113</v>
+        <v>0.02141970289121981</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06967972273632735</v>
+        <v>0.06734508950289436</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -6827,19 +6827,19 @@
         <v>14904</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8645</v>
+        <v>8691</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23002</v>
+        <v>24036</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0626264195129307</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03632629759530591</v>
+        <v>0.03651786840755203</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09665353780769161</v>
+        <v>0.1009982544299905</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -6848,19 +6848,19 @@
         <v>28648</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19386</v>
+        <v>19409</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40647</v>
+        <v>40857</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0484379633991486</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03277822970126342</v>
+        <v>0.03281727230470396</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06872754364297448</v>
+        <v>0.06908162619133282</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>20901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13146</v>
+        <v>13450</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31017</v>
+        <v>32199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05913402624994211</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03719387878574527</v>
+        <v>0.03805563052673267</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0877556431473286</v>
+        <v>0.09110154996641792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -6898,19 +6898,19 @@
         <v>9034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4159</v>
+        <v>4368</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17495</v>
+        <v>16744</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03796162509182356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01747440996060815</v>
+        <v>0.01835578574874321</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07351377293787548</v>
+        <v>0.0703593272786868</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -6919,19 +6919,19 @@
         <v>29935</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20497</v>
+        <v>21042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42327</v>
+        <v>41599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05061446438757774</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03465673739143613</v>
+        <v>0.03557795760786787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07156700212104056</v>
+        <v>0.07033722394825898</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>97433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>81398</v>
+        <v>80853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117229</v>
+        <v>115816</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2756680860279819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2303001937891157</v>
+        <v>0.2287574781573537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3316785247380031</v>
+        <v>0.3276788072307522</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -6969,19 +6969,19 @@
         <v>48646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36979</v>
+        <v>36395</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61140</v>
+        <v>62294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2044060919601247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1553851832270245</v>
+        <v>0.1529286669030331</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2569087622517013</v>
+        <v>0.2617566133661388</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -6990,19 +6990,19 @@
         <v>146079</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127848</v>
+        <v>126190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170523</v>
+        <v>169208</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2469929743879518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2161676981568103</v>
+        <v>0.2133647367400914</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2883241346149782</v>
+        <v>0.2861005334958698</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>139749</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>121228</v>
+        <v>121213</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>160274</v>
+        <v>159661</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3953936818052289</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3429913966173812</v>
+        <v>0.3429496290301554</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4534659792776162</v>
+        <v>0.4517304373969167</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>87</v>
@@ -7040,19 +7040,19 @@
         <v>91051</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>76005</v>
+        <v>75404</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>105280</v>
+        <v>105287</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3825916457918292</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3193709364126659</v>
+        <v>0.3168430761449009</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4423802579220014</v>
+        <v>0.4424088920325632</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>222</v>
@@ -7061,19 +7061,19 @@
         <v>230800</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>206294</v>
+        <v>208260</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>255672</v>
+        <v>254679</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3902422709205663</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3488062625551115</v>
+        <v>0.3521313001967779</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.432296520971796</v>
+        <v>0.4306164255487348</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>54017</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40854</v>
+        <v>41680</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>69321</v>
+        <v>70722</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1528313179872226</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1155900635012543</v>
+        <v>0.117924955362044</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1961299592749999</v>
+        <v>0.2000950712545965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -7111,19 +7111,19 @@
         <v>40409</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29805</v>
+        <v>29336</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>53205</v>
+        <v>52586</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1697970373859929</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1252408459023355</v>
+        <v>0.123266331667295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2235665947589805</v>
+        <v>0.2209649848927309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>91</v>
@@ -7132,19 +7132,19 @@
         <v>94426</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77439</v>
+        <v>78182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>114690</v>
+        <v>113682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1596581533035332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1309358501586915</v>
+        <v>0.1321921179093413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1939213033361397</v>
+        <v>0.1922165208300073</v>
       </c>
     </row>
     <row r="17">
@@ -7236,19 +7236,19 @@
         <v>53424</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40757</v>
+        <v>39215</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>70238</v>
+        <v>68774</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1298008551713928</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09902418472721203</v>
+        <v>0.09527739645288419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1706523309702883</v>
+        <v>0.1670958930489386</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>26</v>
@@ -7257,19 +7257,19 @@
         <v>27847</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19228</v>
+        <v>19031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39358</v>
+        <v>38907</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.111461911718106</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07696272938535428</v>
+        <v>0.07617183766508598</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1575358485562006</v>
+        <v>0.1557285596265591</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>73</v>
@@ -7278,19 +7278,19 @@
         <v>81271</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>64581</v>
+        <v>64679</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>98802</v>
+        <v>99032</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1228737163144735</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09763924078428085</v>
+        <v>0.09778788664366585</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1493781594508159</v>
+        <v>0.1497260457037684</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>26408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17263</v>
+        <v>17425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39633</v>
+        <v>38371</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06416243909770317</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04194347531179188</v>
+        <v>0.04233751567710149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09629426714133878</v>
+        <v>0.09322732157503748</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -7328,19 +7328,19 @@
         <v>11391</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5973</v>
+        <v>5772</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18504</v>
+        <v>19726</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04559197335654803</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02390873212148591</v>
+        <v>0.02310285280983087</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07406289318042435</v>
+        <v>0.07895377112314957</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -7349,19 +7349,19 @@
         <v>37799</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26894</v>
+        <v>26157</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50821</v>
+        <v>50731</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0571478477089289</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04066168876823251</v>
+        <v>0.03954623050111038</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07683562296401807</v>
+        <v>0.07670020713737895</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>23074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14683</v>
+        <v>15017</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34955</v>
+        <v>34261</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05606229432813811</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03567414059411383</v>
+        <v>0.03648539951217428</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08492870255667753</v>
+        <v>0.08324285004356589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -7399,19 +7399,19 @@
         <v>20978</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13526</v>
+        <v>12872</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31570</v>
+        <v>30069</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08396653733125048</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05414087910209146</v>
+        <v>0.05152037145464806</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1263627332885234</v>
+        <v>0.1203534588416694</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>41</v>
@@ -7420,19 +7420,19 @@
         <v>44052</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>32309</v>
+        <v>32507</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57771</v>
+        <v>58659</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06660251800417183</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04884731038047534</v>
+        <v>0.04914736136446839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08734417063236027</v>
+        <v>0.08868588725886048</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>82535</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>66404</v>
+        <v>65088</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>99700</v>
+        <v>99469</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.200531254925875</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1613381420822531</v>
+        <v>0.158140650734185</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2422355521361287</v>
+        <v>0.2416753487470191</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -7470,19 +7470,19 @@
         <v>46997</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>36312</v>
+        <v>35101</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59737</v>
+        <v>60245</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1881105854686704</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1453421947237012</v>
+        <v>0.1404947827420228</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2391025427888875</v>
+        <v>0.2411367910016654</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>126</v>
@@ -7491,19 +7491,19 @@
         <v>129532</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>110183</v>
+        <v>108221</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>151196</v>
+        <v>152058</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1958396159421399</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1665858039895501</v>
+        <v>0.1636188017202487</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2285927555255561</v>
+        <v>0.2298965992374729</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>157817</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138243</v>
+        <v>138813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178796</v>
+        <v>177898</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3834384618929113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3358821185020032</v>
+        <v>0.337264908081242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4344109705011175</v>
+        <v>0.4322295571590219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -7541,19 +7541,19 @@
         <v>109611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>94222</v>
+        <v>93938</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125277</v>
+        <v>124604</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4387314094427706</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3771346651068278</v>
+        <v>0.3759952730040884</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.501436195476426</v>
+        <v>0.4987411405428105</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>261</v>
@@ -7562,19 +7562,19 @@
         <v>267428</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>241012</v>
+        <v>244043</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>293238</v>
+        <v>293603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4043241757543378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3643860127765167</v>
+        <v>0.368967828758987</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4433462711014327</v>
+        <v>0.4438981086938993</v>
       </c>
     </row>
     <row r="23">
@@ -7591,19 +7591,19 @@
         <v>68325</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>54400</v>
+        <v>55067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84671</v>
+        <v>85089</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1660046945839797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1321732042472392</v>
+        <v>0.1337937523918989</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2057198151219162</v>
+        <v>0.2067368506102324</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -7612,19 +7612,19 @@
         <v>33013</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23359</v>
+        <v>24076</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>44950</v>
+        <v>45675</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1321375826826545</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09349856371519916</v>
+        <v>0.09636624697711736</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1799189298906272</v>
+        <v>0.1828193546747044</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>97</v>
@@ -7633,19 +7633,19 @@
         <v>101338</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>84267</v>
+        <v>83655</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>120327</v>
+        <v>121141</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.153212126275948</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1274036060400257</v>
+        <v>0.1264773047254009</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1819222164439463</v>
+        <v>0.1831533262693966</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>44135</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32123</v>
+        <v>33304</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58218</v>
+        <v>58176</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1836107534280513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1336384175862955</v>
+        <v>0.1385532957091961</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2422007018463003</v>
+        <v>0.2420261631141392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7758,19 +7758,19 @@
         <v>32161</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22230</v>
+        <v>21859</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44363</v>
+        <v>44089</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1862471580028909</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1287348920559505</v>
+        <v>0.1265894903967171</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2569076683441746</v>
+        <v>0.2553203842671569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -7779,19 +7779,19 @@
         <v>76296</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61240</v>
+        <v>62121</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95191</v>
+        <v>94190</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.184712933192616</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1482625966824234</v>
+        <v>0.1503967082735202</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.230458135896332</v>
+        <v>0.2280354620516576</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>17971</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10590</v>
+        <v>10565</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29026</v>
+        <v>28731</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07476542665861302</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04405586431405032</v>
+        <v>0.0439531829958026</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1207541597639102</v>
+        <v>0.1195291249229799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -7829,19 +7829,19 @@
         <v>14762</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9159</v>
+        <v>8784</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23279</v>
+        <v>23521</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08548554208919193</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05304154758309701</v>
+        <v>0.05087008989734237</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1348087784534371</v>
+        <v>0.1362128134267426</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -7850,19 +7850,19 @@
         <v>32733</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22445</v>
+        <v>23214</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>45529</v>
+        <v>45049</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07924709628327622</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05434008879808896</v>
+        <v>0.05620064410815717</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1102266195525984</v>
+        <v>0.1090647635517865</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>21299</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13158</v>
+        <v>13717</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31346</v>
+        <v>31827</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08860828815046286</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05474253079529661</v>
+        <v>0.05706711479180741</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1304083935809052</v>
+        <v>0.1324095879314822</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -7900,19 +7900,19 @@
         <v>9454</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4766</v>
+        <v>4566</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17234</v>
+        <v>17494</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.0547480092208889</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02759986145610894</v>
+        <v>0.02644106359893132</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09980257820835445</v>
+        <v>0.1013098190044661</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>29</v>
@@ -7921,19 +7921,19 @@
         <v>30753</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>21282</v>
+        <v>20410</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>42808</v>
+        <v>42623</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07445260255696359</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05152378963999023</v>
+        <v>0.04941260805708252</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1036377289864461</v>
+        <v>0.1031919369247258</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>43707</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31814</v>
+        <v>31451</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57101</v>
+        <v>57658</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1818322949930194</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1323557098971881</v>
+        <v>0.1308428455825736</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2375561222692527</v>
+        <v>0.2398726598514954</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -7971,19 +7971,19 @@
         <v>31693</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>21154</v>
+        <v>22166</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42978</v>
+        <v>43570</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1835342113675779</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.122506249775447</v>
+        <v>0.1283624977875068</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.248887976175677</v>
+        <v>0.2523184387560767</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>68</v>
@@ -7992,19 +7992,19 @@
         <v>75400</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59517</v>
+        <v>60033</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>93009</v>
+        <v>92746</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1825438010368647</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1440906320554418</v>
+        <v>0.1453415046265258</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2251770844043367</v>
+        <v>0.2245397218725241</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>81196</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64448</v>
+        <v>66374</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95705</v>
+        <v>95814</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3377951994417135</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2681220312541477</v>
+        <v>0.2761314516955801</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3981588384471118</v>
+        <v>0.3986089996342155</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>48</v>
@@ -8042,19 +8042,19 @@
         <v>49002</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>37993</v>
+        <v>38118</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>61342</v>
+        <v>62731</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2837717478814404</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2200217664881105</v>
+        <v>0.2207441885827645</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3552342164089522</v>
+        <v>0.3632811375707355</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>123</v>
@@ -8063,19 +8063,19 @@
         <v>130198</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>111245</v>
+        <v>111177</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151602</v>
+        <v>149482</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3152100637269887</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2693267966682549</v>
+        <v>0.2691611426628443</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3670299206372376</v>
+        <v>0.3618981592602646</v>
       </c>
     </row>
     <row r="30">
@@ -8092,19 +8092,19 @@
         <v>32062</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21907</v>
+        <v>21961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43835</v>
+        <v>44711</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1333880373281399</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09113970796895134</v>
+        <v>0.09136396349390605</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1823660107605359</v>
+        <v>0.1860110016506087</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>35</v>
@@ -8113,19 +8113,19 @@
         <v>35609</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>25072</v>
+        <v>25493</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>46877</v>
+        <v>47780</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.20621333143801</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1451961479767231</v>
+        <v>0.1476297591418451</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2714647341538065</v>
+        <v>0.2766986523728489</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>64</v>
@@ -8134,19 +8134,19 @@
         <v>67671</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>52857</v>
+        <v>53080</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>83171</v>
+        <v>83827</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1638335032032908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1279676379488755</v>
+        <v>0.1285081986131739</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2013593794075928</v>
+        <v>0.202945709149982</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>145396</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>124027</v>
+        <v>123826</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>173581</v>
+        <v>170878</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1137192610574439</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09700626948797103</v>
+        <v>0.096849187864814</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1357642090818934</v>
+        <v>0.1336500308664366</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>100</v>
@@ -8259,19 +8259,19 @@
         <v>107848</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>87904</v>
+        <v>88144</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>127614</v>
+        <v>130926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1189676698985482</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09696728552598828</v>
+        <v>0.09723184865790359</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1407711856906804</v>
+        <v>0.1444248155079078</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>233</v>
@@ -8280,19 +8280,19 @@
         <v>253244</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>220801</v>
+        <v>223573</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>282554</v>
+        <v>288061</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1158966918921294</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1010492281982554</v>
+        <v>0.1023178713688391</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1293102899072149</v>
+        <v>0.1318307485184717</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>73813</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>57672</v>
+        <v>58352</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>93015</v>
+        <v>93073</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05773191649711971</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04510708101780691</v>
+        <v>0.04563943829286606</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07275050818733815</v>
+        <v>0.07279619081003635</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>52</v>
@@ -8330,19 +8330,19 @@
         <v>51542</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>38751</v>
+        <v>39325</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>65252</v>
+        <v>67044</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05685598807227222</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.042746459483941</v>
+        <v>0.04337931324800848</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07198008592363353</v>
+        <v>0.07395639242963789</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>118</v>
@@ -8351,19 +8351,19 @@
         <v>125355</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>103996</v>
+        <v>103632</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>148530</v>
+        <v>147221</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05736851615637203</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04759352135259859</v>
+        <v>0.04742725562898987</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06797440261322246</v>
+        <v>0.06737552254676089</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>80883</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63052</v>
+        <v>65389</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>99539</v>
+        <v>99880</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0632616855791885</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04931539398750231</v>
+        <v>0.05114288645683072</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07785314678898005</v>
+        <v>0.07811996086130006</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>54</v>
@@ -8401,19 +8401,19 @@
         <v>55860</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>42185</v>
+        <v>42943</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70801</v>
+        <v>72735</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06161972593368353</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04653422637346168</v>
+        <v>0.04737048264061864</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07810057366026409</v>
+        <v>0.08023416046161662</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>128</v>
@@ -8422,19 +8422,19 @@
         <v>136744</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>115009</v>
+        <v>115615</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>162070</v>
+        <v>160762</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06258047844200222</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05263375780351692</v>
+        <v>0.05291123744483735</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07417102814526383</v>
+        <v>0.07357269785131215</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>295369</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>267202</v>
+        <v>264874</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>327328</v>
+        <v>330097</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2310193680862532</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2089883676332708</v>
+        <v>0.2071679469405031</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2560155025558981</v>
+        <v>0.2581813334768514</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>179</v>
@@ -8472,19 +8472,19 @@
         <v>180234</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>159237</v>
+        <v>157510</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>207364</v>
+        <v>207221</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1988158716202506</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1756547964369448</v>
+        <v>0.1737500131408754</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2287435639353392</v>
+        <v>0.228585351869748</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>456</v>
@@ -8493,19 +8493,19 @@
         <v>475603</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>437431</v>
+        <v>433758</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>519168</v>
+        <v>515553</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2176589595676582</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2001895570077887</v>
+        <v>0.1985087473815814</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2375962409520407</v>
+        <v>0.2359421568195498</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>480027</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>447142</v>
+        <v>445835</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>517548</v>
+        <v>515093</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3754466749956686</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3497264865406626</v>
+        <v>0.3487043040920876</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4047938024612848</v>
+        <v>0.402873245115532</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>332</v>
@@ -8543,19 +8543,19 @@
         <v>337515</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>308773</v>
+        <v>309990</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>368358</v>
+        <v>366978</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3723133749155436</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.340607624442732</v>
+        <v>0.3419501405206894</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4063362220583884</v>
+        <v>0.4048134155771666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>785</v>
@@ -8564,19 +8564,19 @@
         <v>817542</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>772119</v>
+        <v>771640</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>864969</v>
+        <v>861929</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3741467487865375</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3533592547713797</v>
+        <v>0.3531398101374215</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.39585167205636</v>
+        <v>0.394460333732659</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>203060</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>177980</v>
+        <v>176211</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>229925</v>
+        <v>229555</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.158821093784326</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.139204718576378</v>
+        <v>0.1378208381087651</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1798331013325385</v>
+        <v>0.1795435659283286</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -8614,19 +8614,19 @@
         <v>173536</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>153266</v>
+        <v>150450</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>198216</v>
+        <v>198287</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1914273695597019</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1690682272037802</v>
+        <v>0.1659615559627116</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2186520046037564</v>
+        <v>0.2187307693115331</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>358</v>
@@ -8635,19 +8635,19 @@
         <v>376596</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>342264</v>
+        <v>342813</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>415214</v>
+        <v>412634</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1723486051553007</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.156636717437077</v>
+        <v>0.1568879647069223</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1900220888964867</v>
+        <v>0.1888414648770124</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>6972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3032</v>
+        <v>2987</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13989</v>
+        <v>13915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04259829608324121</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01852580932438329</v>
+        <v>0.01825368264684088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08547517270822594</v>
+        <v>0.08502767748960725</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -9000,19 +9000,19 @@
         <v>12027</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7155</v>
+        <v>6668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20006</v>
+        <v>19234</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07958191212921031</v>
+        <v>0.07958191212921033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04734559736480774</v>
+        <v>0.04412495591107775</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1323792594970477</v>
+        <v>0.1272715432025735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -9021,19 +9021,19 @@
         <v>18998</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12367</v>
+        <v>12344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29778</v>
+        <v>28232</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06035400329282199</v>
+        <v>0.06035400329282201</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03928603679529813</v>
+        <v>0.03921501060584691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09459807590222628</v>
+        <v>0.08968821037289097</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>9899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4818</v>
+        <v>4902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17758</v>
+        <v>18364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06048488519926994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02943854132422495</v>
+        <v>0.02995245084504324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.108505094371136</v>
+        <v>0.1122085096404379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -9071,19 +9071,19 @@
         <v>10577</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5644</v>
+        <v>5792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17955</v>
+        <v>17767</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06998488721829864</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03734812281932503</v>
+        <v>0.03832800938841963</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1188077518159246</v>
+        <v>0.1175632937267224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -9092,19 +9092,19 @@
         <v>20475</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12645</v>
+        <v>13106</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30564</v>
+        <v>30843</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06504580358352523</v>
+        <v>0.06504580358352526</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04016959525022944</v>
+        <v>0.04163444444289956</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09709391586618255</v>
+        <v>0.09798118674028435</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>26411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16066</v>
+        <v>17819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38058</v>
+        <v>40539</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1613808425440188</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09817144697265037</v>
+        <v>0.108877310085479</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2325466095731601</v>
+        <v>0.2477048222905233</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -9142,19 +9142,19 @@
         <v>11281</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6309</v>
+        <v>6416</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19126</v>
+        <v>18271</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.0746465710047996</v>
+        <v>0.07464657100479959</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04174602914133689</v>
+        <v>0.04245582901317833</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1265587216361727</v>
+        <v>0.1208957409965061</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -9163,19 +9163,19 @@
         <v>37692</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27066</v>
+        <v>25326</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54277</v>
+        <v>50496</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1197400162772616</v>
+        <v>0.1197400162772617</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08598142668311537</v>
+        <v>0.08045443544142571</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1724248646393134</v>
+        <v>0.1604140104176262</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>58908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45817</v>
+        <v>44846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72407</v>
+        <v>72527</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3599504504516025</v>
+        <v>0.3599504504516026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2799553945985046</v>
+        <v>0.2740228773228877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4424340787780222</v>
+        <v>0.4431656927269237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -9213,19 +9213,19 @@
         <v>29381</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21903</v>
+        <v>21122</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38671</v>
+        <v>38836</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1944106669791423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1449287151449635</v>
+        <v>0.1397656156428654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.25588177729048</v>
+        <v>0.2569786852573624</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -9234,19 +9234,19 @@
         <v>88289</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71883</v>
+        <v>73267</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105726</v>
+        <v>107648</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2804753682092116</v>
+        <v>0.2804753682092118</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2283571549517466</v>
+        <v>0.2327548089521135</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3358698991041389</v>
+        <v>0.3419752724092909</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>40716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28714</v>
+        <v>29867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55153</v>
+        <v>55465</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2487891508280677</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1754510271001643</v>
+        <v>0.1824993042884879</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3370028856452802</v>
+        <v>0.3389086859149726</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -9284,19 +9284,19 @@
         <v>47629</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37726</v>
+        <v>37273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60832</v>
+        <v>60313</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3151610421249197</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2496286333742664</v>
+        <v>0.2466324485704498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4025248448087492</v>
+        <v>0.3990887523716521</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -9305,19 +9305,19 @@
         <v>88345</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72545</v>
+        <v>70099</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106188</v>
+        <v>107926</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.280654068183586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2304580368252373</v>
+        <v>0.2226883228186827</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.337336401146258</v>
+        <v>0.3428569455072679</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>20751</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13087</v>
+        <v>12742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32005</v>
+        <v>30794</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1267963748937997</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0799685412474479</v>
+        <v>0.07785997187270534</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1955611696324718</v>
+        <v>0.1881600507870829</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -9355,19 +9355,19 @@
         <v>40232</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>30262</v>
+        <v>30156</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50442</v>
+        <v>49742</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2662149205436295</v>
+        <v>0.2662149205436296</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2002448115391049</v>
+        <v>0.1995427420305662</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3337747067141696</v>
+        <v>0.3291427612322756</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>69</v>
@@ -9376,19 +9376,19 @@
         <v>60983</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>49114</v>
+        <v>48741</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75275</v>
+        <v>76694</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1937307404535934</v>
+        <v>0.1937307404535935</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1560246395406591</v>
+        <v>0.154839147245084</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2391331545250324</v>
+        <v>0.2436411996626435</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>43745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32112</v>
+        <v>32280</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58887</v>
+        <v>60011</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09058071405009967</v>
+        <v>0.09058071405009968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06649273388463391</v>
+        <v>0.06684090422743075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1219346077772516</v>
+        <v>0.1242602225034778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -9501,19 +9501,19 @@
         <v>27630</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20142</v>
+        <v>19459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38200</v>
+        <v>38172</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0856824499348655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06246169315072321</v>
+        <v>0.06034340571774611</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1184591510481768</v>
+        <v>0.1183715963942167</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>73</v>
@@ -9522,19 +9522,19 @@
         <v>71376</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>56857</v>
+        <v>55894</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>88896</v>
+        <v>88606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08861954453633202</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07059381959664375</v>
+        <v>0.06939787303668429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1103730788997477</v>
+        <v>0.1100127200345108</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>12950</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6754</v>
+        <v>6122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23992</v>
+        <v>23195</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02681468560714382</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01398446306659425</v>
+        <v>0.01267548908716182</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04967964620396975</v>
+        <v>0.04802904287725876</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -9572,19 +9572,19 @@
         <v>17051</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10884</v>
+        <v>10918</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25428</v>
+        <v>25830</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05287652068304247</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03375076688703622</v>
+        <v>0.03385701207695784</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07885301789740522</v>
+        <v>0.08009924905851105</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -9593,19 +9593,19 @@
         <v>30001</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20127</v>
+        <v>21071</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42421</v>
+        <v>43673</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.03724933658170644</v>
+        <v>0.03724933658170643</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02498964941879611</v>
+        <v>0.02616146692251472</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05267012877976369</v>
+        <v>0.05422398155727746</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>63648</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47780</v>
+        <v>47369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82953</v>
+        <v>82833</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1317909587710785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09893557400966169</v>
+        <v>0.09808318357978001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1717646705650927</v>
+        <v>0.1715174962934348</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -9643,19 +9643,19 @@
         <v>33671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25197</v>
+        <v>24681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44213</v>
+        <v>44101</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1044146950054291</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07813782981555452</v>
+        <v>0.07653714443326561</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1371048529934998</v>
+        <v>0.136758710719826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>92</v>
@@ -9664,19 +9664,19 @@
         <v>97318</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79757</v>
+        <v>78530</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120199</v>
+        <v>120156</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1208300361595203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0990256415174775</v>
+        <v>0.09750215205876636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1492389954642299</v>
+        <v>0.1491851072159752</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>149616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>127505</v>
+        <v>124283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>171602</v>
+        <v>175070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.309800899602496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2640171611049218</v>
+        <v>0.2573456709060831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3553255543707239</v>
+        <v>0.3625060382820547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -9714,19 +9714,19 @@
         <v>79839</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67184</v>
+        <v>66815</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95628</v>
+        <v>93939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2475835985574575</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.208340338000609</v>
+        <v>0.2071969516129847</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2965451829861517</v>
+        <v>0.2913067432140864</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>225</v>
@@ -9735,19 +9735,19 @@
         <v>229455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>199963</v>
+        <v>202237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>257311</v>
+        <v>258019</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2848903045084212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2482728247071533</v>
+        <v>0.2510970447944603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3194762985316295</v>
+        <v>0.3203555215749417</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>134819</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113090</v>
+        <v>112536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>158515</v>
+        <v>158880</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2791608616020168</v>
+        <v>0.2791608616020169</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2341691231690185</v>
+        <v>0.2330209460274742</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3282277225709619</v>
+        <v>0.3289836598964294</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>107</v>
@@ -9785,19 +9785,19 @@
         <v>86874</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72884</v>
+        <v>73944</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>102153</v>
+        <v>102012</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2693996331677929</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2260169727906291</v>
+        <v>0.2293041478468743</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3167786925415101</v>
+        <v>0.3163421935477048</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>222</v>
@@ -9806,19 +9806,19 @@
         <v>221693</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>196720</v>
+        <v>195293</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>249903</v>
+        <v>250754</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2752526559251152</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.244246281478287</v>
+        <v>0.242475406118187</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3102784403608864</v>
+        <v>0.3113346827551882</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>78165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>62590</v>
+        <v>61313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99088</v>
+        <v>101014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1618518803671652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1296020440284897</v>
+        <v>0.1269575953064019</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2051744160927903</v>
+        <v>0.2091641685537053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -9856,19 +9856,19 @@
         <v>77407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65396</v>
+        <v>65073</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90340</v>
+        <v>91493</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2400431026514125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2027958864662529</v>
+        <v>0.201792589263056</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2801464859457591</v>
+        <v>0.2837241350073251</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -9877,19 +9877,19 @@
         <v>155572</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134055</v>
+        <v>134907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178552</v>
+        <v>180842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1931581222889049</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1664419727862854</v>
+        <v>0.1675000337659372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2216889148365577</v>
+        <v>0.2245332650928637</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>68339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>54193</v>
+        <v>53007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87635</v>
+        <v>86095</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1226724152021362</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09728000066847765</v>
+        <v>0.09515167762719241</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.157309916615602</v>
+        <v>0.1545453048612523</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -10002,19 +10002,19 @@
         <v>60115</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49046</v>
+        <v>47139</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73454</v>
+        <v>73173</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1411443379127199</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1151544061756884</v>
+        <v>0.1106783065496187</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1724621107361054</v>
+        <v>0.1718025307828589</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>140</v>
@@ -10023,19 +10023,19 @@
         <v>128454</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>109911</v>
+        <v>108845</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149496</v>
+        <v>149289</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1306759491774481</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1118117107318597</v>
+        <v>0.1107273255345253</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1520818531628996</v>
+        <v>0.1518715422930461</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>35409</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24064</v>
+        <v>24589</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50053</v>
+        <v>51212</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06356170523371255</v>
+        <v>0.06356170523371256</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0431965082376226</v>
+        <v>0.04413888980134988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08984854983673898</v>
+        <v>0.09192938355635209</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -10073,19 +10073,19 @@
         <v>27622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19150</v>
+        <v>19708</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37692</v>
+        <v>38214</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06485333682107274</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04496288546301046</v>
+        <v>0.04627235170001825</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08849572744610076</v>
+        <v>0.08972258748782244</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>68</v>
@@ -10094,19 +10094,19 @@
         <v>63031</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49813</v>
+        <v>49009</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>80148</v>
+        <v>81508</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06412134471764676</v>
+        <v>0.06412134471764674</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05067457648388297</v>
+        <v>0.04985678278030578</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08153387018617894</v>
+        <v>0.08291825322959712</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>38285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28140</v>
+        <v>27430</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51869</v>
+        <v>51557</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06872488976547912</v>
+        <v>0.06872488976547914</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05051332263039585</v>
+        <v>0.04923816237456263</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09310742473419267</v>
+        <v>0.09254836092330745</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -10144,19 +10144,19 @@
         <v>40271</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29941</v>
+        <v>30316</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51943</v>
+        <v>52261</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09455143234486316</v>
+        <v>0.09455143234486317</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07029755659551554</v>
+        <v>0.07117854099940013</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1219571975867124</v>
+        <v>0.1227034445559712</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -10165,19 +10165,19 @@
         <v>78556</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64010</v>
+        <v>62456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>96709</v>
+        <v>94872</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07991504112316682</v>
+        <v>0.07991504112316683</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06511704037826471</v>
+        <v>0.06353646963819863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09838145015818657</v>
+        <v>0.09651341217682459</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>174468</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>149657</v>
+        <v>150114</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>197309</v>
+        <v>200041</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3131808557697443</v>
+        <v>0.3131808557697442</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2686431145339719</v>
+        <v>0.2694636626055029</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3541823176418055</v>
+        <v>0.3590862612623178</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -10215,19 +10215,19 @@
         <v>104340</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>89526</v>
+        <v>89333</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>120017</v>
+        <v>119117</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2449779726499595</v>
+        <v>0.2449779726499596</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2101962450424985</v>
+        <v>0.2097448219226898</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2817869895933228</v>
+        <v>0.2796729400338508</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>292</v>
@@ -10236,19 +10236,19 @@
         <v>278808</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>250420</v>
+        <v>250632</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>309984</v>
+        <v>309578</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2836298392991813</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2547516732062612</v>
+        <v>0.2549667030301409</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3153453726643555</v>
+        <v>0.3149319837375334</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>152241</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>128288</v>
+        <v>130311</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>176945</v>
+        <v>175420</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2732822500324256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2302850837642664</v>
+        <v>0.2339169403403683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3176279467308002</v>
+        <v>0.3148905393521798</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>170</v>
@@ -10286,19 +10286,19 @@
         <v>128144</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112018</v>
+        <v>113360</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147386</v>
+        <v>145929</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3008688909198968</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2630071463670524</v>
+        <v>0.266156562653346</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3460455347075513</v>
+        <v>0.3426254281080435</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>309</v>
@@ -10307,19 +10307,19 @@
         <v>280385</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>250102</v>
+        <v>248974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309362</v>
+        <v>308664</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2852350186243547</v>
+        <v>0.2852350186243546</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2544278570907489</v>
+        <v>0.2532804214823621</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3147130578092622</v>
+        <v>0.3140029459493872</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>88341</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>70672</v>
+        <v>72156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>106853</v>
+        <v>106117</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1585778839965022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1268599132794925</v>
+        <v>0.1295239008597319</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1918081819499083</v>
+        <v>0.1904875819353191</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>91</v>
@@ -10357,19 +10357,19 @@
         <v>65422</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>52792</v>
+        <v>53216</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79596</v>
+        <v>79609</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1536040293514879</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.123949885315434</v>
+        <v>0.1249456392387406</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1868829148366297</v>
+        <v>0.1869132010667628</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>177</v>
@@ -10378,19 +10378,19 @@
         <v>153763</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>133161</v>
+        <v>132683</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>177597</v>
+        <v>176679</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1564228070582024</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1354643888207689</v>
+        <v>0.1349774716558455</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1806686478433137</v>
+        <v>0.1797347289742526</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>84722</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67651</v>
+        <v>68030</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105919</v>
+        <v>106281</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.187021845962228</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1493380899822022</v>
+        <v>0.1501752862767601</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.233814175876482</v>
+        <v>0.2346123017722005</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>76</v>
@@ -10503,19 +10503,19 @@
         <v>59735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48476</v>
+        <v>47679</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>74492</v>
+        <v>73744</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1845728756594007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.149784710864781</v>
+        <v>0.1473231143476243</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2301713255764427</v>
+        <v>0.227859303230428</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>142</v>
@@ -10524,19 +10524,19 @@
         <v>144457</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>122218</v>
+        <v>122913</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>171544</v>
+        <v>170248</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1860013253466351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1573662235911477</v>
+        <v>0.1582610623558231</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2208785098073077</v>
+        <v>0.2192096916634504</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>34623</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23023</v>
+        <v>23077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52102</v>
+        <v>52227</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.07642891674030178</v>
+        <v>0.07642891674030176</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05082298930113923</v>
+        <v>0.0509419175009747</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.115014401113836</v>
+        <v>0.1152908486287542</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -10574,19 +10574,19 @@
         <v>33286</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24735</v>
+        <v>24384</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>44565</v>
+        <v>44552</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1028509248774036</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07642758300994916</v>
+        <v>0.0753425725843386</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1377012209666446</v>
+        <v>0.1376604473370983</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>71</v>
@@ -10595,19 +10595,19 @@
         <v>67909</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53166</v>
+        <v>51882</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>86975</v>
+        <v>86656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08743934180676596</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06845591131580765</v>
+        <v>0.06680217245601737</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1119884596591211</v>
+        <v>0.1115771114173432</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>43141</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30858</v>
+        <v>30595</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>59111</v>
+        <v>58685</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.09523194546049796</v>
+        <v>0.09523194546049794</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06811746351826416</v>
+        <v>0.06753734024460031</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.130485582759653</v>
+        <v>0.1295461639296318</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>28</v>
@@ -10645,19 +10645,19 @@
         <v>19303</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13278</v>
+        <v>13282</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>27517</v>
+        <v>27232</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05964456809375749</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04102822178318396</v>
+        <v>0.04103838632779545</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08502269683534161</v>
+        <v>0.08414215985818373</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>65</v>
@@ -10666,19 +10666,19 @@
         <v>62444</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>47869</v>
+        <v>49673</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>79606</v>
+        <v>80713</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08040218120581709</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06163631016656774</v>
+        <v>0.06395850996287382</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1025005191416163</v>
+        <v>0.103924871611106</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>109471</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>89754</v>
+        <v>88968</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>129824</v>
+        <v>131920</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2416549570033805</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.198130329388107</v>
+        <v>0.1963950293472001</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2865847195509189</v>
+        <v>0.2912112684642673</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>97</v>
@@ -10716,19 +10716,19 @@
         <v>68544</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>56256</v>
+        <v>56190</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>80735</v>
+        <v>81435</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2117927607479901</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1738241017688471</v>
+        <v>0.1736210706539861</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2494609498160211</v>
+        <v>0.2516242013734852</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>187</v>
@@ -10737,19 +10737,19 @@
         <v>178015</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>156343</v>
+        <v>154162</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>204360</v>
+        <v>203545</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2292109568167207</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2013053982118857</v>
+        <v>0.1984976904448207</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2631317214244937</v>
+        <v>0.2620828106525456</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>117787</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97087</v>
+        <v>99029</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>139925</v>
+        <v>139116</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2600133713391402</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2143170544642007</v>
+        <v>0.2186055059540439</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3088809226371555</v>
+        <v>0.3070957728024586</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>122</v>
@@ -10787,19 +10787,19 @@
         <v>93612</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>79930</v>
+        <v>78294</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>108644</v>
+        <v>109015</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2892477873782731</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2469745893223134</v>
+        <v>0.2419197452538803</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3356963660820257</v>
+        <v>0.3368438864714622</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>229</v>
@@ -10808,19 +10808,19 @@
         <v>211399</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>186080</v>
+        <v>186175</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>237569</v>
+        <v>238014</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.272195766616989</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2395954619743638</v>
+        <v>0.2397179348776046</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3058914435933847</v>
+        <v>0.3064645694589831</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>63262</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48377</v>
+        <v>47415</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80200</v>
+        <v>79755</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1396489634944515</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1067923214867836</v>
+        <v>0.1046678320501401</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1770393332136469</v>
+        <v>0.1760583170712426</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>69</v>
@@ -10858,19 +10858,19 @@
         <v>49158</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36430</v>
+        <v>38919</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59334</v>
+        <v>61657</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.151891083243175</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1125648225158707</v>
+        <v>0.1202533478252049</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1833356679662299</v>
+        <v>0.1905128028711489</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>127</v>
@@ -10879,19 +10879,19 @@
         <v>112420</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>93876</v>
+        <v>94238</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>133915</v>
+        <v>134200</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1447504282070722</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1208737774535464</v>
+        <v>0.1213402630825763</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1724278787981383</v>
+        <v>0.172794175204338</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>203778</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>174705</v>
+        <v>175867</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>233930</v>
+        <v>236941</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1230028766820197</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1054541190589932</v>
+        <v>0.1061557429049339</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1412035198667314</v>
+        <v>0.1430209678318508</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>204</v>
@@ -11004,19 +11004,19 @@
         <v>159507</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>139825</v>
+        <v>137825</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>181498</v>
+        <v>181024</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1304069002449575</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1143150337532082</v>
+        <v>0.1126804465642833</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1483855400061959</v>
+        <v>0.1479977796377749</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>377</v>
@@ -11025,19 +11025,19 @@
         <v>363285</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>329477</v>
+        <v>324579</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>401977</v>
+        <v>401753</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1261475805809086</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.114408253417596</v>
+        <v>0.1127074313667972</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1395831918231079</v>
+        <v>0.1395054202741339</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>92881</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>74346</v>
+        <v>73792</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>117625</v>
+        <v>115825</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05606401747654566</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04487620347915734</v>
+        <v>0.04454183931007354</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07100014499146197</v>
+        <v>0.06991336875648108</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>115</v>
@@ -11075,19 +11075,19 @@
         <v>88536</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>73347</v>
+        <v>73036</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>105486</v>
+        <v>105026</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07238371671166577</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05996549080850715</v>
+        <v>0.059711089952676</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08624126887367481</v>
+        <v>0.08586484037405115</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>193</v>
@@ -11096,19 +11096,19 @@
         <v>181417</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>156330</v>
+        <v>154792</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>209983</v>
+        <v>210584</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06299546783959849</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05428420959931887</v>
+        <v>0.05375035022030675</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07291471930548897</v>
+        <v>0.07312363052017205</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>171485</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>147502</v>
+        <v>145905</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>202767</v>
+        <v>200366</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.103510513911494</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08903414023025602</v>
+        <v>0.08807005650786166</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1223929157537212</v>
+        <v>0.1209435628866513</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>138</v>
@@ -11146,19 +11146,19 @@
         <v>104526</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>88911</v>
+        <v>87520</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>121546</v>
+        <v>123160</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.08545630244320941</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07268996915000861</v>
+        <v>0.07155251958838886</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09937125760712935</v>
+        <v>0.1006908852005071</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>281</v>
@@ -11167,19 +11167,19 @@
         <v>276011</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>245502</v>
+        <v>245058</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>308117</v>
+        <v>309018</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09584236581430561</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08524839402589393</v>
+        <v>0.08509417048331676</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.106991115942045</v>
+        <v>0.1073037256343996</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>492464</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>454013</v>
+        <v>449477</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>538065</v>
+        <v>534334</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2972576747045028</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2740482826737643</v>
+        <v>0.2713105971305472</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3247835356337716</v>
+        <v>0.3225315479116058</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>386</v>
@@ -11217,19 +11217,19 @@
         <v>282103</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>258676</v>
+        <v>257064</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>309708</v>
+        <v>308843</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2306364721084126</v>
+        <v>0.2306364721084127</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2114828871374</v>
+        <v>0.2101651882040799</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2532048534937494</v>
+        <v>0.2524977694162029</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>789</v>
@@ -11238,19 +11238,19 @@
         <v>774567</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>723145</v>
+        <v>723381</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>824788</v>
+        <v>825626</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.268961714572595</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2511057945978675</v>
+        <v>0.25118800185068</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2864005272717214</v>
+        <v>0.2866916800491097</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>445563</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>404281</v>
+        <v>401185</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>485838</v>
+        <v>485951</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2689481153693773</v>
+        <v>0.2689481153693772</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2440297409049494</v>
+        <v>0.2421608344878533</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2932581704893794</v>
+        <v>0.2933266311052239</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>452</v>
@@ -11288,19 +11288,19 @@
         <v>356259</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>325351</v>
+        <v>326312</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>384018</v>
+        <v>384358</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2912633110513261</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2659942164200149</v>
+        <v>0.2667795512677437</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3139577567030488</v>
+        <v>0.3142354299585196</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>844</v>
@@ -11309,19 +11309,19 @@
         <v>801822</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>753436</v>
+        <v>752460</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>855350</v>
+        <v>851170</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2784260272464769</v>
+        <v>0.278426027246477</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2616242358652422</v>
+        <v>0.2612854838300281</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2970129651505494</v>
+        <v>0.295561430985102</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>250519</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>220922</v>
+        <v>221848</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>281032</v>
+        <v>283215</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1512168018560606</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1333513790085602</v>
+        <v>0.1339106413662457</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1696345962303984</v>
+        <v>0.1709522398773033</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>316</v>
@@ -11359,19 +11359,19 @@
         <v>232219</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>210332</v>
+        <v>208237</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>257741</v>
+        <v>258459</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1898532974404286</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1719586365351446</v>
+        <v>0.170246133685261</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2107183609221766</v>
+        <v>0.2113055617453177</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>542</v>
@@ -11380,19 +11380,19 @@
         <v>482738</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>444082</v>
+        <v>444090</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>524620</v>
+        <v>524603</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1676268439461154</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.154203695586574</v>
+        <v>0.1542066094751713</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1821697721502154</v>
+        <v>0.1821639609089587</v>
       </c>
     </row>
     <row r="38">
